--- a/exe/Xml/MaxSpeed.xlsx
+++ b/exe/Xml/MaxSpeed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\【簡易版】TrainCrewMoniter - コピー\exe\Xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\【簡易版】TrainCrewMoniter\exe\Xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC984EB0-7C1A-4902-97A5-87C15B98D310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02930A77-986F-4BCA-829F-502684CA11BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="3975" windowWidth="24345" windowHeight="15000" xr2:uid="{B7AC98FA-5289-4DBE-8340-C15171D52C62}"/>
+    <workbookView xWindow="8415" yWindow="4380" windowWidth="24345" windowHeight="15000" xr2:uid="{B7AC98FA-5289-4DBE-8340-C15171D52C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="44">
   <si>
     <t>Direction</t>
     <phoneticPr fontId="1"/>
@@ -127,6 +127,110 @@
     <rPh sb="0" eb="1">
       <t>ノボ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤山町</t>
+    <rPh sb="0" eb="2">
+      <t>アカヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西赤山</t>
+  </si>
+  <si>
+    <t>西赤山</t>
+    <rPh sb="0" eb="1">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>アカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥峯口</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ミネグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日野森</t>
+    <rPh sb="0" eb="3">
+      <t>ヒノモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見沢</t>
+    <rPh sb="0" eb="3">
+      <t>タカミザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水越</t>
+    <rPh sb="0" eb="2">
+      <t>ミズコシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤江</t>
+    <rPh sb="0" eb="2">
+      <t>フジエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤江</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水越</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見沢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日野森</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥峯口</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤山町</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>館浜</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -228,8 +332,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2EDE9D6-10CA-4754-8EE5-72D289A57F93}" name="テーブル1" displayName="テーブル1" ref="A1:F57" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F57" xr:uid="{E2EDE9D6-10CA-4754-8EE5-72D289A57F93}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2EDE9D6-10CA-4754-8EE5-72D289A57F93}" name="テーブル1" displayName="テーブル1" ref="A1:F85" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F85" xr:uid="{E2EDE9D6-10CA-4754-8EE5-72D289A57F93}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EAB8D971-D625-4B99-B02B-F27B55FF38B5}" uniqueName="Direction" name="Direction">
       <xmlColumnPr mapId="1" xpath="/Xml/Value/Direction" xmlDataType="string"/>
@@ -551,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -591,54 +695,54 @@
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -651,80 +755,80 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -732,10 +836,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -744,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -752,19 +856,19 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -772,7 +876,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -784,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -792,7 +896,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -804,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -812,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -824,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -832,7 +936,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -852,7 +956,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -864,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -872,10 +976,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>2000</v>
@@ -884,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -892,10 +996,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>2000</v>
@@ -904,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -912,10 +1016,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>2000</v>
@@ -924,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -932,10 +1036,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>2000</v>
@@ -952,19 +1056,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>2000</v>
       </c>
       <c r="E20">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -972,19 +1076,19 @@
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>1170</v>
+        <v>2000</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -992,10 +1096,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>2000</v>
@@ -1004,147 +1108,147 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
+      <c r="B23" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
+      <c r="B24" t="s">
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
+      <c r="B25" t="s">
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
+      <c r="B26" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
+      <c r="B27" t="s">
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
+      <c r="B28" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
+      <c r="B29" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -1152,290 +1256,290 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>2000</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D30">
-        <v>2000</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D31">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>25</v>
+      <c r="A32" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>2000</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>2000</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>2000</v>
+      </c>
+      <c r="E34">
+        <v>1170</v>
+      </c>
+      <c r="F34">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>1170</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>2000</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>2000</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>2000</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>2000</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>2000</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>2000</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>2000</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32">
-        <v>2000</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33">
-        <v>2000</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34">
-        <v>2000</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="C43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>2000</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35">
-        <v>2000</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36">
-        <v>2000</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37">
-        <v>2000</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38">
-        <v>2000</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39">
-        <v>2000</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40">
-        <v>2000</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41">
-        <v>2000</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42">
-        <v>2000</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43">
-        <v>2000</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>75</v>
-      </c>
-    </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>25</v>
+      <c r="A44" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D44">
         <v>2000</v>
@@ -1444,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -1452,10 +1556,10 @@
         <v>25</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45">
         <v>2000</v>
@@ -1464,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -1472,10 +1576,10 @@
         <v>25</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46">
         <v>2000</v>
@@ -1484,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -1492,10 +1596,10 @@
         <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D47">
         <v>2000</v>
@@ -1504,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -1512,10 +1616,10 @@
         <v>25</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48">
         <v>2000</v>
@@ -1524,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -1532,10 +1636,10 @@
         <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49">
         <v>2000</v>
@@ -1552,10 +1656,10 @@
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D50">
         <v>2000</v>
@@ -1564,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -1572,10 +1676,10 @@
         <v>25</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51">
         <v>2000</v>
@@ -1584,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -1592,10 +1696,10 @@
         <v>25</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52">
         <v>2000</v>
@@ -1604,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -1612,10 +1716,10 @@
         <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53">
         <v>2000</v>
@@ -1624,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
@@ -1632,19 +1736,19 @@
         <v>25</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54">
         <v>2000</v>
       </c>
       <c r="E54">
-        <v>917</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
@@ -1655,10 +1759,10 @@
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55">
-        <v>917</v>
+        <v>2000</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1675,7 +1779,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56">
         <v>2000</v>
@@ -1695,16 +1799,576 @@
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
         <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>3000</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>3000</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>3000</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61">
+        <v>3000</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <v>3000</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63">
+        <v>3000</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>3000</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>2000</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>2000</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>2000</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>2000</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>2000</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>2000</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71">
+        <v>2000</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72">
+        <v>2000</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73">
+        <v>2000</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74">
+        <v>2000</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75">
+        <v>2000</v>
+      </c>
+      <c r="E75">
+        <v>917</v>
+      </c>
+      <c r="F75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76">
+        <v>917</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77">
+        <v>2000</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78">
+        <v>3000</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79">
+        <v>3000</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80">
+        <v>3000</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81">
+        <v>3000</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82">
+        <v>3000</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83">
+        <v>3000</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84">
+        <v>3000</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85">
+        <v>3000</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/exe/Xml/MaxSpeed.xlsx
+++ b/exe/Xml/MaxSpeed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\【簡易版】TrainCrewMoniter\exe\Xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02930A77-986F-4BCA-829F-502684CA11BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A926A87-BD50-4D43-9DEA-F0863806E211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="4380" windowWidth="24345" windowHeight="15000" xr2:uid="{B7AC98FA-5289-4DBE-8340-C15171D52C62}"/>
+    <workbookView xWindow="4695" yWindow="4755" windowWidth="24345" windowHeight="15000" xr2:uid="{B7AC98FA-5289-4DBE-8340-C15171D52C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
